--- a/output/below_50/tRNA-Arg-TCT-2-1.xlsx
+++ b/output/below_50/tRNA-Arg-TCT-2-1.xlsx
@@ -12,93 +12,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>chr17</t>
   </si>
   <si>
-    <t>8024249</t>
-  </si>
-  <si>
-    <t>8024272</t>
+    <t>8023688</t>
+  </si>
+  <si>
+    <t>8023711</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8023691</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>TAGCGTGGCCGAGCGGTCTA</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
+    <t>89% (68)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>8023746</t>
+  </si>
+  <si>
+    <t>8023769</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>8024269</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>TGGCGCAATGGATAGCGCAT</t>
+    <t>8023766</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>AAGAGACTAGAAGTAAGGAA</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>69% (54)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>8024287</t>
-  </si>
-  <si>
-    <t>8024310</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>8024307</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>TAGAGCAATTCAAAGGTTGT</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>46% (43)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 48, Doench 2016: 72%, Moreno-Mateos: 46%</t>
-  </si>
-  <si>
-    <t>10543545193</t>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>82% (62)</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 39, Doench 2016: 59%, Moreno-Mateos: 82%</t>
+  </si>
+  <si>
+    <t>1.73482E+11</t>
   </si>
 </sst>
 </file>
@@ -166,10 +169,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -222,49 +225,49 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
